--- a/demo/resource/simframedef.xlsx
+++ b/demo/resource/simframedef.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="17100" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18705" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -39,9 +40,6 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
     <t>age_grp</t>
   </si>
   <si>
@@ -61,6 +59,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -411,7 +412,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,48 +452,48 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -501,21 +502,21 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
